--- a/yieldFiles/A1/a1_det2.xlsx
+++ b/yieldFiles/A1/a1_det2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C610"/>
+  <dimension ref="A1:C749"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1692,10 +1692,10 @@
         <v>2.48392</v>
       </c>
       <c r="B121" t="n">
-        <v>5.0050485e-13</v>
+        <v>8.615796300000001e-13</v>
       </c>
       <c r="C121" t="n">
-        <v>9.295861319999999e-15</v>
+        <v>1.08032472e-14</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>2.48392</v>
       </c>
       <c r="B122" t="n">
-        <v>8.615796300000001e-13</v>
+        <v>5.0050485e-13</v>
       </c>
       <c r="C122" t="n">
-        <v>1.08032472e-14</v>
+        <v>9.295861319999999e-15</v>
       </c>
     </row>
     <row r="123">
@@ -1736,10 +1736,10 @@
         <v>2.48496</v>
       </c>
       <c r="B125" t="n">
-        <v>5.1343299e-13</v>
+        <v>2.13972732e-13</v>
       </c>
       <c r="C125" t="n">
-        <v>8.36719794e-15</v>
+        <v>5.1205527e-15</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>2.48496</v>
       </c>
       <c r="B126" t="n">
-        <v>2.13972732e-13</v>
+        <v>5.1343299e-13</v>
       </c>
       <c r="C126" t="n">
-        <v>5.1205527e-15</v>
+        <v>8.36719794e-15</v>
       </c>
     </row>
     <row r="127">
@@ -2748,10 +2748,10 @@
         <v>2.71393</v>
       </c>
       <c r="B217" t="n">
-        <v>1.191152682e-13</v>
+        <v>1.020414726e-13</v>
       </c>
       <c r="C217" t="n">
-        <v>6.171112260000001e-15</v>
+        <v>4.49550036e-15</v>
       </c>
     </row>
     <row r="218">
@@ -2759,10 +2759,10 @@
         <v>2.71393</v>
       </c>
       <c r="B218" t="n">
-        <v>1.020414726e-13</v>
+        <v>1.191152682e-13</v>
       </c>
       <c r="C218" t="n">
-        <v>4.49550036e-15</v>
+        <v>6.171112260000001e-15</v>
       </c>
     </row>
     <row r="219">
@@ -3672,10 +3672,10 @@
         <v>2.74252</v>
       </c>
       <c r="B301" t="n">
-        <v>1.142701794e-13</v>
+        <v>1.095450804e-13</v>
       </c>
       <c r="C301" t="n">
-        <v>3.10832856e-15</v>
+        <v>2.896880580000001e-15</v>
       </c>
     </row>
     <row r="302">
@@ -3683,10 +3683,10 @@
         <v>2.74252</v>
       </c>
       <c r="B302" t="n">
-        <v>1.095450804e-13</v>
+        <v>1.142701794e-13</v>
       </c>
       <c r="C302" t="n">
-        <v>2.896880580000001e-15</v>
+        <v>3.10832856e-15</v>
       </c>
     </row>
     <row r="303">
@@ -4461,2620 +4461,4149 @@
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>2.86985</v>
+        <v>2.86983</v>
       </c>
       <c r="B373" t="n">
-        <v>1.05721587e-13</v>
+        <v>1.74784608e-13</v>
       </c>
       <c r="C373" t="n">
-        <v>5.90862456e-15</v>
+        <v>5.708310480000001e-15</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>2.87044</v>
+        <v>2.86985</v>
       </c>
       <c r="B374" t="n">
-        <v>8.8988697e-14</v>
+        <v>1.05721587e-13</v>
       </c>
       <c r="C374" t="n">
-        <v>6.58471662e-15</v>
+        <v>5.90862456e-15</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>2.87098</v>
+        <v>2.87044</v>
       </c>
       <c r="B375" t="n">
-        <v>1.81636362e-13</v>
+        <v>8.8988697e-14</v>
       </c>
       <c r="C375" t="n">
-        <v>5.91117174e-15</v>
+        <v>6.58471662e-15</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>2.8711</v>
+        <v>2.87079</v>
       </c>
       <c r="B376" t="n">
-        <v>1.454598378e-13</v>
+        <v>2.6894376e-13</v>
       </c>
       <c r="C376" t="n">
-        <v>7.177985280000001e-15</v>
+        <v>1.42620453e-14</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>2.87156</v>
+        <v>2.87098</v>
       </c>
       <c r="B377" t="n">
-        <v>1.584525384e-13</v>
+        <v>1.81636362e-13</v>
       </c>
       <c r="C377" t="n">
-        <v>7.522959960000001e-15</v>
+        <v>5.91117174e-15</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>2.87192</v>
+        <v>2.8711</v>
       </c>
       <c r="B378" t="n">
-        <v>2.13753258e-13</v>
+        <v>1.454598378e-13</v>
       </c>
       <c r="C378" t="n">
-        <v>8.596332e-15</v>
+        <v>7.177985280000001e-15</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>2.87203</v>
+        <v>2.87156</v>
       </c>
       <c r="B379" t="n">
-        <v>1.85513202e-13</v>
+        <v>1.584525384e-13</v>
       </c>
       <c r="C379" t="n">
-        <v>8.5228002e-15</v>
+        <v>7.522959960000001e-15</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>2.87225</v>
+        <v>2.87192</v>
       </c>
       <c r="B380" t="n">
-        <v>2.02321386e-13</v>
+        <v>2.13753258e-13</v>
       </c>
       <c r="C380" t="n">
-        <v>8.275755780000001e-15</v>
+        <v>8.596332e-15</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>2.8725</v>
+        <v>2.87192</v>
       </c>
       <c r="B381" t="n">
-        <v>2.03255352e-13</v>
+        <v>2.37595824e-13</v>
       </c>
       <c r="C381" t="n">
-        <v>9.41828616e-15</v>
+        <v>1.24578729e-14</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>2.87281</v>
+        <v>2.87203</v>
       </c>
       <c r="B382" t="n">
-        <v>1.89838602e-13</v>
+        <v>1.85513202e-13</v>
       </c>
       <c r="C382" t="n">
-        <v>1.171295892e-14</v>
+        <v>8.5228002e-15</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>2.87297</v>
+        <v>2.87225</v>
       </c>
       <c r="B383" t="n">
-        <v>2.10363426e-13</v>
+        <v>2.02321386e-13</v>
       </c>
       <c r="C383" t="n">
-        <v>8.10120186e-15</v>
+        <v>8.275755780000001e-15</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>2.87318</v>
+        <v>2.8725</v>
       </c>
       <c r="B384" t="n">
-        <v>1.81179792e-13</v>
+        <v>2.03255352e-13</v>
       </c>
       <c r="C384" t="n">
-        <v>9.29842452e-15</v>
+        <v>9.41828616e-15</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>2.87337</v>
+        <v>2.87281</v>
       </c>
       <c r="B385" t="n">
-        <v>1.68692202e-13</v>
+        <v>1.89838602e-13</v>
       </c>
       <c r="C385" t="n">
-        <v>8.84925576e-15</v>
+        <v>1.171295892e-14</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>2.87386</v>
+        <v>2.87288</v>
       </c>
       <c r="B386" t="n">
-        <v>1.187974314e-13</v>
+        <v>1.9322523e-13</v>
       </c>
       <c r="C386" t="n">
-        <v>6.31325772e-15</v>
+        <v>2.05116876e-14</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>2.87398</v>
+        <v>2.87297</v>
       </c>
       <c r="B387" t="n">
-        <v>1.449191628e-13</v>
+        <v>2.10363426e-13</v>
       </c>
       <c r="C387" t="n">
-        <v>1.01020518e-14</v>
+        <v>8.10120186e-15</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>2.87487</v>
+        <v>2.87318</v>
       </c>
       <c r="B388" t="n">
-        <v>1.254425274e-13</v>
+        <v>1.81179792e-13</v>
       </c>
       <c r="C388" t="n">
-        <v>9.198684000000001e-15</v>
+        <v>9.29842452e-15</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>2.87584</v>
+        <v>2.87337</v>
       </c>
       <c r="B389" t="n">
-        <v>8.66798946e-14</v>
+        <v>1.68692202e-13</v>
       </c>
       <c r="C389" t="n">
-        <v>3.89146626e-15</v>
+        <v>8.84925576e-15</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>2.87602</v>
+        <v>2.87386</v>
       </c>
       <c r="B390" t="n">
-        <v>1.060519194e-13</v>
+        <v>1.187974314e-13</v>
       </c>
       <c r="C390" t="n">
-        <v>2.96155332e-15</v>
+        <v>6.31325772e-15</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>2.87699</v>
+        <v>2.87398</v>
       </c>
       <c r="B391" t="n">
-        <v>6.557674860000001e-14</v>
+        <v>1.449191628e-13</v>
       </c>
       <c r="C391" t="n">
-        <v>4.011872580000001e-15</v>
+        <v>1.01020518e-14</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>2.87795</v>
+        <v>2.87412</v>
       </c>
       <c r="B392" t="n">
-        <v>9.90377226e-14</v>
+        <v>1.545374106e-13</v>
       </c>
       <c r="C392" t="n">
-        <v>5.8815027e-15</v>
+        <v>1.04484042e-14</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87487</v>
       </c>
       <c r="B393" t="n">
-        <v>1.129334706e-13</v>
+        <v>1.254425274e-13</v>
       </c>
       <c r="C393" t="n">
-        <v>7.423780139999999e-15</v>
+        <v>9.198684000000001e-15</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87584</v>
       </c>
       <c r="B394" t="n">
-        <v>1.087735572e-13</v>
+        <v>8.66798946e-14</v>
       </c>
       <c r="C394" t="n">
-        <v>4.67236116e-15</v>
+        <v>3.89146626e-15</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>2.87999</v>
+        <v>2.87591</v>
       </c>
       <c r="B395" t="n">
-        <v>8.65627884e-14</v>
+        <v>1.448860014e-13</v>
       </c>
       <c r="C395" t="n">
-        <v>4.287656880000001e-15</v>
+        <v>1.281523104e-14</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>2.88879</v>
+        <v>2.87602</v>
       </c>
       <c r="B396" t="n">
-        <v>4.14871542e-14</v>
+        <v>1.060519194e-13</v>
       </c>
       <c r="C396" t="n">
-        <v>3.82431042e-15</v>
+        <v>2.96155332e-15</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>2.90444</v>
+        <v>2.87699</v>
       </c>
       <c r="B397" t="n">
-        <v>9.94159548e-14</v>
+        <v>6.557674860000001e-14</v>
       </c>
       <c r="C397" t="n">
-        <v>4.92536502e-15</v>
+        <v>4.011872580000001e-15</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>2.90481</v>
+        <v>2.87795</v>
       </c>
       <c r="B398" t="n">
-        <v>1.73249892e-13</v>
+        <v>9.90377226e-14</v>
       </c>
       <c r="C398" t="n">
-        <v>6.71592042e-15</v>
+        <v>5.8815027e-15</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>2.90576</v>
+        <v>2.87802</v>
       </c>
       <c r="B399" t="n">
-        <v>7.55203626e-13</v>
+        <v>1.73068866e-13</v>
       </c>
       <c r="C399" t="n">
-        <v>2.60850456e-14</v>
+        <v>7.71825978e-15</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.8788</v>
       </c>
       <c r="B400" t="n">
-        <v>1.244311848e-12</v>
+        <v>1.079049528e-13</v>
       </c>
       <c r="C400" t="n">
-        <v>1.85336982e-14</v>
+        <v>8.42232276e-15</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.87894</v>
       </c>
       <c r="B401" t="n">
-        <v>1.315020924e-12</v>
+        <v>1.087735572e-13</v>
       </c>
       <c r="C401" t="n">
-        <v>2.66122638e-14</v>
+        <v>4.67236116e-15</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>2.90644</v>
+        <v>2.87894</v>
       </c>
       <c r="B402" t="n">
-        <v>7.292720520000001e-13</v>
+        <v>1.129334706e-13</v>
       </c>
       <c r="C402" t="n">
-        <v>2.49601212e-14</v>
+        <v>7.423780139999999e-15</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>2.90675</v>
+        <v>2.87999</v>
       </c>
       <c r="B403" t="n">
-        <v>1.305945594e-12</v>
+        <v>8.65627884e-14</v>
       </c>
       <c r="C403" t="n">
-        <v>2.54227788e-14</v>
+        <v>4.287656880000001e-15</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>2.90706</v>
+        <v>2.88098</v>
       </c>
       <c r="B404" t="n">
-        <v>8.37030582e-13</v>
+        <v>1.04329449e-13</v>
       </c>
       <c r="C404" t="n">
-        <v>2.9516049e-14</v>
+        <v>1.075642074e-14</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>2.90739</v>
+        <v>2.88879</v>
       </c>
       <c r="B405" t="n">
-        <v>3.39721722e-13</v>
+        <v>4.14871542e-14</v>
       </c>
       <c r="C405" t="n">
-        <v>1.236268206e-14</v>
+        <v>3.82431042e-15</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>2.90788</v>
+        <v>2.90444</v>
       </c>
       <c r="B406" t="n">
-        <v>2.13022746e-13</v>
+        <v>9.94159548e-14</v>
       </c>
       <c r="C406" t="n">
-        <v>5.9088168e-15</v>
+        <v>4.92536502e-15</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>2.9085</v>
+        <v>2.90481</v>
       </c>
       <c r="B407" t="n">
-        <v>1.415620116e-13</v>
+        <v>1.73249892e-13</v>
       </c>
       <c r="C407" t="n">
-        <v>6.23508012e-15</v>
+        <v>6.71592042e-15</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>2.90904</v>
+        <v>2.90576</v>
       </c>
       <c r="B408" t="n">
-        <v>1.170938646e-13</v>
+        <v>7.55203626e-13</v>
       </c>
       <c r="C408" t="n">
-        <v>4.18272588e-15</v>
+        <v>2.60850456e-14</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>2.90949</v>
+        <v>2.90595</v>
       </c>
       <c r="B409" t="n">
-        <v>9.678146580000001e-14</v>
+        <v>1.244311848e-12</v>
       </c>
       <c r="C409" t="n">
-        <v>3.9104019e-15</v>
+        <v>1.85336982e-14</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>2.91001</v>
+        <v>2.90595</v>
       </c>
       <c r="B410" t="n">
-        <v>8.392653719999999e-14</v>
+        <v>1.315020924e-12</v>
       </c>
       <c r="C410" t="n">
-        <v>3.67534044e-15</v>
+        <v>2.66122638e-14</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>2.91027</v>
+        <v>2.90644</v>
       </c>
       <c r="B411" t="n">
-        <v>7.929771839999999e-14</v>
+        <v>7.292720520000001e-13</v>
       </c>
       <c r="C411" t="n">
-        <v>3.55866678e-15</v>
+        <v>2.49601212e-14</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>2.9115</v>
+        <v>2.90675</v>
       </c>
       <c r="B412" t="n">
-        <v>5.73256476e-14</v>
+        <v>1.305945594e-12</v>
       </c>
       <c r="C412" t="n">
-        <v>3.06576342e-15</v>
+        <v>2.54227788e-14</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>2.91247</v>
+        <v>2.90706</v>
       </c>
       <c r="B413" t="n">
-        <v>4.44893022e-14</v>
+        <v>8.37030582e-13</v>
       </c>
       <c r="C413" t="n">
-        <v>3.0581379e-15</v>
+        <v>2.9516049e-14</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>2.91341</v>
+        <v>2.90739</v>
       </c>
       <c r="B414" t="n">
-        <v>4.5534447e-14</v>
+        <v>3.39721722e-13</v>
       </c>
       <c r="C414" t="n">
-        <v>2.6500284e-15</v>
+        <v>1.236268206e-14</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>2.91393</v>
+        <v>2.90788</v>
       </c>
       <c r="B415" t="n">
-        <v>4.81750236e-14</v>
+        <v>2.13022746e-13</v>
       </c>
       <c r="C415" t="n">
-        <v>2.7128268e-15</v>
+        <v>5.9088168e-15</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>2.91445</v>
+        <v>2.9085</v>
       </c>
       <c r="B416" t="n">
-        <v>6.07130766e-14</v>
+        <v>1.415620116e-13</v>
       </c>
       <c r="C416" t="n">
-        <v>3.940823880000001e-15</v>
+        <v>6.23508012e-15</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>2.91504</v>
+        <v>2.90904</v>
       </c>
       <c r="B417" t="n">
-        <v>1.532468394e-13</v>
+        <v>1.170938646e-13</v>
       </c>
       <c r="C417" t="n">
-        <v>5.87722536e-15</v>
+        <v>4.18272588e-15</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>2.91537</v>
+        <v>2.90949</v>
       </c>
       <c r="B418" t="n">
-        <v>5.784004980000001e-13</v>
+        <v>9.678146580000001e-14</v>
       </c>
       <c r="C418" t="n">
-        <v>1.388065716e-14</v>
+        <v>3.9104019e-15</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>2.91549</v>
+        <v>2.91001</v>
       </c>
       <c r="B419" t="n">
-        <v>6.366604320000001e-13</v>
+        <v>8.392653719999999e-14</v>
       </c>
       <c r="C419" t="n">
-        <v>1.236484476e-14</v>
+        <v>3.67534044e-15</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>2.91566</v>
+        <v>2.91027</v>
       </c>
       <c r="B420" t="n">
-        <v>5.172137100000001e-13</v>
+        <v>7.929771839999999e-14</v>
       </c>
       <c r="C420" t="n">
-        <v>1.590244524e-14</v>
+        <v>3.55866678e-15</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>2.91585</v>
+        <v>2.9115</v>
       </c>
       <c r="B421" t="n">
-        <v>3.57848352e-13</v>
+        <v>5.73256476e-14</v>
       </c>
       <c r="C421" t="n">
-        <v>1.164556278e-14</v>
+        <v>3.06576342e-15</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>2.91604</v>
+        <v>2.91247</v>
       </c>
       <c r="B422" t="n">
-        <v>2.22416874e-13</v>
+        <v>4.44893022e-14</v>
       </c>
       <c r="C422" t="n">
-        <v>8.18884728e-15</v>
+        <v>3.0581379e-15</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>2.91648</v>
+        <v>2.91341</v>
       </c>
       <c r="B423" t="n">
-        <v>1.064450502e-13</v>
+        <v>4.5534447e-14</v>
       </c>
       <c r="C423" t="n">
-        <v>4.39795458e-15</v>
+        <v>2.6500284e-15</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>2.91693</v>
+        <v>2.91393</v>
       </c>
       <c r="B424" t="n">
-        <v>8.386165620000001e-14</v>
+        <v>4.81750236e-14</v>
       </c>
       <c r="C424" t="n">
-        <v>3.47587542e-15</v>
+        <v>2.7128268e-15</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>2.91745</v>
+        <v>2.91445</v>
       </c>
       <c r="B425" t="n">
-        <v>5.88594024e-14</v>
+        <v>6.07130766e-14</v>
       </c>
       <c r="C425" t="n">
-        <v>2.01060612e-15</v>
+        <v>3.940823880000001e-15</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>2.91793</v>
+        <v>2.91504</v>
       </c>
       <c r="B426" t="n">
-        <v>3.94494102e-14</v>
+        <v>1.532468394e-13</v>
       </c>
       <c r="C426" t="n">
-        <v>2.50733826e-15</v>
+        <v>5.87722536e-15</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>2.9184</v>
+        <v>2.91537</v>
       </c>
       <c r="B427" t="n">
-        <v>4.11983136e-14</v>
+        <v>5.784004980000001e-13</v>
       </c>
       <c r="C427" t="n">
-        <v>1.75873968e-15</v>
+        <v>1.388065716e-14</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>2.91892</v>
+        <v>2.91549</v>
       </c>
       <c r="B428" t="n">
-        <v>4.03877016e-14</v>
+        <v>6.366604320000001e-13</v>
       </c>
       <c r="C428" t="n">
-        <v>1.86660234e-15</v>
+        <v>1.236484476e-14</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>2.91946</v>
+        <v>2.91566</v>
       </c>
       <c r="B429" t="n">
-        <v>3.57616062e-14</v>
+        <v>5.172137100000001e-13</v>
       </c>
       <c r="C429" t="n">
-        <v>1.528053282e-15</v>
+        <v>1.590244524e-14</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>2.91991</v>
+        <v>2.91585</v>
       </c>
       <c r="B430" t="n">
-        <v>3.10598964e-14</v>
+        <v>3.57848352e-13</v>
       </c>
       <c r="C430" t="n">
-        <v>1.75553568e-15</v>
+        <v>1.164556278e-14</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>2.92043</v>
+        <v>2.91604</v>
       </c>
       <c r="B431" t="n">
-        <v>2.8807965e-14</v>
+        <v>2.22416874e-13</v>
       </c>
       <c r="C431" t="n">
-        <v>1.77495192e-15</v>
+        <v>8.18884728e-15</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>2.92084</v>
+        <v>2.91648</v>
       </c>
       <c r="B432" t="n">
-        <v>3.51475596e-14</v>
+        <v>1.064450502e-13</v>
       </c>
       <c r="C432" t="n">
-        <v>1.78381098e-15</v>
+        <v>4.39795458e-15</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>2.92143</v>
+        <v>2.91693</v>
       </c>
       <c r="B433" t="n">
-        <v>2.93619366e-14</v>
+        <v>8.386165620000001e-14</v>
       </c>
       <c r="C433" t="n">
-        <v>1.584868212e-15</v>
+        <v>3.47587542e-15</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>2.9219</v>
+        <v>2.91745</v>
       </c>
       <c r="B434" t="n">
-        <v>3.00088242e-14</v>
+        <v>5.88594024e-14</v>
       </c>
       <c r="C434" t="n">
-        <v>1.65661218e-15</v>
+        <v>2.01060612e-15</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>2.92247</v>
+        <v>2.91793</v>
       </c>
       <c r="B435" t="n">
-        <v>2.7381384e-14</v>
+        <v>3.94494102e-14</v>
       </c>
       <c r="C435" t="n">
-        <v>1.75093794e-15</v>
+        <v>2.50733826e-15</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>2.92297</v>
+        <v>2.9184</v>
       </c>
       <c r="B436" t="n">
-        <v>2.9009817e-14</v>
+        <v>4.11983136e-14</v>
       </c>
       <c r="C436" t="n">
-        <v>2.02321386e-15</v>
+        <v>1.75873968e-15</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>2.92346</v>
+        <v>2.91892</v>
       </c>
       <c r="B437" t="n">
-        <v>2.73780198e-14</v>
+        <v>4.03877016e-14</v>
       </c>
       <c r="C437" t="n">
-        <v>1.9829556e-15</v>
+        <v>1.86660234e-15</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>2.92583</v>
+        <v>2.91946</v>
       </c>
       <c r="B438" t="n">
-        <v>2.77447176e-14</v>
+        <v>3.57616062e-14</v>
       </c>
       <c r="C438" t="n">
-        <v>1.88730018e-15</v>
+        <v>1.528053282e-15</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>2.92979</v>
+        <v>2.91991</v>
       </c>
       <c r="B439" t="n">
-        <v>2.8977777e-14</v>
+        <v>3.10598964e-14</v>
       </c>
       <c r="C439" t="n">
-        <v>2.09783502e-15</v>
+        <v>1.75553568e-15</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>2.93966</v>
+        <v>2.92043</v>
       </c>
       <c r="B440" t="n">
-        <v>3.66600078e-14</v>
+        <v>2.8807965e-14</v>
       </c>
       <c r="C440" t="n">
-        <v>2.11476816e-15</v>
+        <v>1.77495192e-15</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>2.95006</v>
+        <v>2.92084</v>
       </c>
       <c r="B441" t="n">
-        <v>7.83068814e-14</v>
+        <v>3.51475596e-14</v>
       </c>
       <c r="C441" t="n">
-        <v>2.70110016e-15</v>
+        <v>1.78381098e-15</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>2.9597</v>
+        <v>2.92143</v>
       </c>
       <c r="B442" t="n">
-        <v>8.01935568e-14</v>
+        <v>2.93619366e-14</v>
       </c>
       <c r="C442" t="n">
-        <v>2.95146072e-15</v>
+        <v>1.584868212e-15</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>2.96984</v>
+        <v>2.9219</v>
       </c>
       <c r="B443" t="n">
-        <v>6.40240902e-14</v>
+        <v>3.00088242e-14</v>
       </c>
       <c r="C443" t="n">
-        <v>2.48978034e-15</v>
+        <v>1.65661218e-15</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>2.97979</v>
+        <v>2.92247</v>
       </c>
       <c r="B444" t="n">
-        <v>6.47123094e-14</v>
+        <v>2.7381384e-14</v>
       </c>
       <c r="C444" t="n">
-        <v>2.86232544e-15</v>
+        <v>1.75093794e-15</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>2.98967</v>
+        <v>2.92297</v>
       </c>
       <c r="B445" t="n">
-        <v>8.83434114e-14</v>
+        <v>2.9009817e-14</v>
       </c>
       <c r="C445" t="n">
-        <v>3.27493656e-15</v>
+        <v>2.02321386e-15</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>2.99885</v>
+        <v>2.92346</v>
       </c>
       <c r="B446" t="n">
-        <v>1.7059698e-13</v>
+        <v>2.73780198e-14</v>
       </c>
       <c r="C446" t="n">
-        <v>7.53974892e-15</v>
+        <v>1.9829556e-15</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>2.99993</v>
+        <v>2.92583</v>
       </c>
       <c r="B447" t="n">
-        <v>1.62743976e-13</v>
+        <v>2.77447176e-14</v>
       </c>
       <c r="C447" t="n">
-        <v>5.85792126e-15</v>
+        <v>1.88730018e-15</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>3.00403</v>
+        <v>2.92979</v>
       </c>
       <c r="B448" t="n">
-        <v>2.8393848e-13</v>
+        <v>2.8977777e-14</v>
       </c>
       <c r="C448" t="n">
-        <v>6.65268948e-15</v>
+        <v>2.09783502e-15</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>3.00807</v>
+        <v>2.93966</v>
       </c>
       <c r="B449" t="n">
-        <v>3.8164446e-13</v>
+        <v>3.66600078e-14</v>
       </c>
       <c r="C449" t="n">
-        <v>9.297142920000001e-15</v>
+        <v>2.11476816e-15</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>3.01001</v>
+        <v>2.95006</v>
       </c>
       <c r="B450" t="n">
-        <v>5.381726760000002e-13</v>
+        <v>7.83068814e-14</v>
       </c>
       <c r="C450" t="n">
-        <v>8.368303320000001e-15</v>
+        <v>2.70110016e-15</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>3.01128</v>
+        <v>2.9597</v>
       </c>
       <c r="B451" t="n">
-        <v>6.7935213e-13</v>
+        <v>8.01935568e-14</v>
       </c>
       <c r="C451" t="n">
-        <v>1.309846464e-14</v>
+        <v>2.95146072e-15</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>3.01174</v>
+        <v>2.96984</v>
       </c>
       <c r="B452" t="n">
-        <v>7.157960280000001e-13</v>
+        <v>6.40240902e-14</v>
       </c>
       <c r="C452" t="n">
-        <v>1.340989344e-14</v>
+        <v>2.48978034e-15</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
-        <v>3.01205</v>
+        <v>2.97074</v>
       </c>
       <c r="B453" t="n">
-        <v>7.862407740000001e-13</v>
+        <v>8.453497679999999e-14</v>
       </c>
       <c r="C453" t="n">
-        <v>1.441130364e-14</v>
+        <v>7.11385722e-15</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
-        <v>3.01229</v>
+        <v>2.97979</v>
       </c>
       <c r="B454" t="n">
-        <v>8.3085327e-13</v>
+        <v>6.47123094e-14</v>
       </c>
       <c r="C454" t="n">
-        <v>1.281644856e-14</v>
+        <v>2.86232544e-15</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
-        <v>3.01249</v>
+        <v>2.98023</v>
       </c>
       <c r="B455" t="n">
-        <v>8.810727660000003e-13</v>
+        <v>8.638784999999999e-14</v>
       </c>
       <c r="C455" t="n">
-        <v>1.468055178e-14</v>
+        <v>5.54258358e-15</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
-        <v>3.01268</v>
+        <v>2.98967</v>
       </c>
       <c r="B456" t="n">
-        <v>8.882545319999999e-13</v>
+        <v>8.83434114e-14</v>
       </c>
       <c r="C456" t="n">
-        <v>1.295295498e-14</v>
+        <v>3.27493656e-15</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
-        <v>3.01299</v>
+        <v>2.99092</v>
       </c>
       <c r="B457" t="n">
-        <v>8.874054720000001e-13</v>
+        <v>1.237029156e-13</v>
       </c>
       <c r="C457" t="n">
-        <v>1.44705456e-14</v>
+        <v>6.9829578e-15</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
-        <v>3.01352</v>
+        <v>2.99494</v>
       </c>
       <c r="B458" t="n">
-        <v>9.24549444e-13</v>
+        <v>1.564207218e-13</v>
       </c>
       <c r="C458" t="n">
-        <v>1.424520828e-14</v>
+        <v>8.96948586e-15</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
-        <v>3.01388</v>
+        <v>2.99885</v>
       </c>
       <c r="B459" t="n">
-        <v>8.6685021e-13</v>
+        <v>1.7059698e-13</v>
       </c>
       <c r="C459" t="n">
-        <v>1.368782442e-14</v>
+        <v>7.53974892e-15</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
-        <v>3.01436</v>
+        <v>2.9989</v>
       </c>
       <c r="B460" t="n">
-        <v>7.764413400000001e-13</v>
+        <v>2.06558676e-13</v>
       </c>
       <c r="C460" t="n">
-        <v>1.27986984e-14</v>
+        <v>1.10015748e-14</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>3.01501</v>
+        <v>2.99991</v>
       </c>
       <c r="B461" t="n">
-        <v>6.63835158e-13</v>
+        <v>2.22905484e-13</v>
       </c>
       <c r="C461" t="n">
-        <v>1.401407172e-14</v>
+        <v>1.014389604e-14</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>3.01551</v>
+        <v>2.99993</v>
       </c>
       <c r="B462" t="n">
-        <v>5.95466604e-13</v>
+        <v>1.62743976e-13</v>
       </c>
       <c r="C462" t="n">
-        <v>1.014517764e-14</v>
+        <v>5.85792126e-15</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>3.01607</v>
+        <v>3.00139</v>
       </c>
       <c r="B463" t="n">
-        <v>5.120296380000001e-13</v>
+        <v>2.50437456e-13</v>
       </c>
       <c r="C463" t="n">
-        <v>9.241008839999998e-15</v>
+        <v>7.5520683e-15</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>3.0165</v>
+        <v>3.00252</v>
       </c>
       <c r="B464" t="n">
-        <v>4.58830422e-13</v>
+        <v>2.6791047e-13</v>
       </c>
       <c r="C464" t="n">
-        <v>9.74289942e-15</v>
+        <v>8.276316480000001e-15</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>3.01703</v>
+        <v>3.00336</v>
       </c>
       <c r="B465" t="n">
-        <v>3.91423068e-13</v>
+        <v>2.71439676e-13</v>
       </c>
       <c r="C465" t="n">
-        <v>7.95442662e-15</v>
+        <v>1.038594222e-14</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>3.01753</v>
+        <v>3.00403</v>
       </c>
       <c r="B466" t="n">
-        <v>3.7272933e-13</v>
+        <v>2.8393848e-13</v>
       </c>
       <c r="C466" t="n">
-        <v>6.72274494e-15</v>
+        <v>6.65268948e-15</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>3.01809</v>
+        <v>3.00434</v>
       </c>
       <c r="B467" t="n">
-        <v>3.38042826e-13</v>
+        <v>3.33786312e-13</v>
       </c>
       <c r="C467" t="n">
-        <v>7.1188875e-15</v>
+        <v>1.269796464e-14</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>3.01857</v>
+        <v>3.0055</v>
       </c>
       <c r="B468" t="n">
-        <v>2.82342888e-13</v>
+        <v>3.39829056e-13</v>
       </c>
       <c r="C468" t="n">
-        <v>8.530601939999998e-15</v>
+        <v>7.6139856e-15</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>3.01898</v>
+        <v>3.00638</v>
       </c>
       <c r="B469" t="n">
-        <v>2.75692986e-13</v>
+        <v>3.71814588e-13</v>
       </c>
       <c r="C469" t="n">
-        <v>8.52847128e-15</v>
+        <v>8.208183419999999e-15</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>3.02004</v>
+        <v>3.00754</v>
       </c>
       <c r="B470" t="n">
-        <v>2.2995909e-13</v>
+        <v>4.05166626e-13</v>
       </c>
       <c r="C470" t="n">
-        <v>8.42313978e-15</v>
+        <v>8.119128239999999e-15</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>3.02218</v>
+        <v>3.00807</v>
       </c>
       <c r="B471" t="n">
-        <v>2.01866418e-13</v>
+        <v>3.8164446e-13</v>
       </c>
       <c r="C471" t="n">
-        <v>8.06953032e-15</v>
+        <v>9.297142920000001e-15</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>3.02586</v>
+        <v>3.00843</v>
       </c>
       <c r="B472" t="n">
-        <v>1.60037397e-13</v>
+        <v>4.642547940000001e-13</v>
       </c>
       <c r="C472" t="n">
-        <v>6.91349508e-15</v>
+        <v>8.77032522e-15</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>3.02991</v>
+        <v>3.00955</v>
       </c>
       <c r="B473" t="n">
-        <v>1.513526346e-13</v>
+        <v>5.651567640000001e-13</v>
       </c>
       <c r="C473" t="n">
-        <v>6.642500760000002e-15</v>
+        <v>1.081114506e-14</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>3.03203</v>
+        <v>3.01001</v>
       </c>
       <c r="B474" t="n">
-        <v>1.55128068e-13</v>
+        <v>5.381726760000002e-13</v>
       </c>
       <c r="C474" t="n">
-        <v>5.5212129e-15</v>
+        <v>8.368303320000001e-15</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>3.033</v>
+        <v>3.01047</v>
       </c>
       <c r="B475" t="n">
-        <v>1.72908666e-13</v>
+        <v>6.49631826e-13</v>
       </c>
       <c r="C475" t="n">
-        <v>7.90317864e-15</v>
+        <v>1.025757396e-14</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>3.0336</v>
+        <v>3.01128</v>
       </c>
       <c r="B476" t="n">
-        <v>2.14794558e-13</v>
+        <v>6.7935213e-13</v>
       </c>
       <c r="C476" t="n">
-        <v>7.73831682e-15</v>
+        <v>1.309846464e-14</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>3.03399</v>
+        <v>3.01174</v>
       </c>
       <c r="B477" t="n">
-        <v>2.32744968e-13</v>
+        <v>7.157960280000001e-13</v>
       </c>
       <c r="C477" t="n">
-        <v>6.88562028e-15</v>
+        <v>1.340989344e-14</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>3.03432</v>
+        <v>3.01205</v>
       </c>
       <c r="B478" t="n">
-        <v>3.05627958e-13</v>
+        <v>7.862407740000001e-13</v>
       </c>
       <c r="C478" t="n">
-        <v>6.58585404e-15</v>
+        <v>1.441130364e-14</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>3.03452</v>
+        <v>3.01229</v>
       </c>
       <c r="B479" t="n">
-        <v>4.50309384e-13</v>
+        <v>8.3085327e-13</v>
       </c>
       <c r="C479" t="n">
-        <v>1.012718718e-14</v>
+        <v>1.281644856e-14</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>3.03483</v>
+        <v>3.01249</v>
       </c>
       <c r="B480" t="n">
-        <v>7.8199227e-13</v>
+        <v>8.810727660000003e-13</v>
       </c>
       <c r="C480" t="n">
-        <v>1.493329932e-14</v>
+        <v>1.468055178e-14</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>3.03505</v>
+        <v>3.01268</v>
       </c>
       <c r="B481" t="n">
-        <v>1.069584912e-12</v>
+        <v>8.882545319999999e-13</v>
       </c>
       <c r="C481" t="n">
-        <v>1.78922574e-14</v>
+        <v>1.295295498e-14</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>3.03594</v>
+        <v>3.01299</v>
       </c>
       <c r="B482" t="n">
-        <v>4.63397724e-13</v>
+        <v>8.874054720000001e-13</v>
       </c>
       <c r="C482" t="n">
-        <v>1.164160584e-14</v>
+        <v>1.44705456e-14</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>3.03698</v>
+        <v>3.01352</v>
       </c>
       <c r="B483" t="n">
-        <v>2.49205518e-13</v>
+        <v>9.24549444e-13</v>
       </c>
       <c r="C483" t="n">
-        <v>8.78531994e-15</v>
+        <v>1.424520828e-14</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>3.03799</v>
+        <v>3.01388</v>
       </c>
       <c r="B484" t="n">
-        <v>2.13231006e-13</v>
+        <v>8.6685021e-13</v>
       </c>
       <c r="C484" t="n">
-        <v>8.46780354e-15</v>
+        <v>1.368782442e-14</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>3.03898</v>
+        <v>3.01436</v>
       </c>
       <c r="B485" t="n">
-        <v>2.03367492e-13</v>
+        <v>7.764413400000001e-13</v>
       </c>
       <c r="C485" t="n">
-        <v>8.662734900000001e-15</v>
+        <v>1.27986984e-14</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>3.04002</v>
+        <v>3.01441</v>
       </c>
       <c r="B486" t="n">
-        <v>2.27040246e-13</v>
+        <v>6.158680739999999e-13</v>
       </c>
       <c r="C486" t="n">
-        <v>6.68564262e-15</v>
+        <v>1.399712256e-14</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>3.04202</v>
+        <v>3.01501</v>
       </c>
       <c r="B487" t="n">
-        <v>2.11212486e-13</v>
+        <v>6.63835158e-13</v>
       </c>
       <c r="C487" t="n">
-        <v>7.918141319999999e-15</v>
+        <v>1.401407172e-14</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>3.04591</v>
+        <v>3.01551</v>
       </c>
       <c r="B488" t="n">
-        <v>1.95568956e-13</v>
+        <v>5.95466604e-13</v>
       </c>
       <c r="C488" t="n">
-        <v>8.026052039999999e-15</v>
+        <v>1.014517764e-14</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>3.05</v>
+        <v>3.01607</v>
       </c>
       <c r="B489" t="n">
-        <v>1.309156002e-13</v>
+        <v>5.120296380000001e-13</v>
       </c>
       <c r="C489" t="n">
-        <v>7.05030588e-15</v>
+        <v>9.241008839999998e-15</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>3.05401</v>
+        <v>3.0165</v>
       </c>
       <c r="B490" t="n">
-        <v>1.286466876e-13</v>
+        <v>4.58830422e-13</v>
       </c>
       <c r="C490" t="n">
-        <v>6.78096162e-15</v>
+        <v>9.74289942e-15</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>3.05801</v>
+        <v>3.01703</v>
       </c>
       <c r="B491" t="n">
-        <v>1.299407832e-13</v>
+        <v>3.91423068e-13</v>
       </c>
       <c r="C491" t="n">
-        <v>7.07005854e-15</v>
+        <v>7.95442662e-15</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>3.05997</v>
+        <v>3.01753</v>
       </c>
       <c r="B492" t="n">
-        <v>1.386692802e-13</v>
+        <v>3.7272933e-13</v>
       </c>
       <c r="C492" t="n">
-        <v>7.09407252e-15</v>
+        <v>6.72274494e-15</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>3.06048</v>
+        <v>3.01809</v>
       </c>
       <c r="B493" t="n">
-        <v>1.73219454e-13</v>
+        <v>3.38042826e-13</v>
       </c>
       <c r="C493" t="n">
-        <v>8.48864556e-15</v>
+        <v>7.1188875e-15</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>3.06096</v>
+        <v>3.01852</v>
       </c>
       <c r="B494" t="n">
-        <v>1.551903858e-13</v>
+        <v>2.82645666e-13</v>
       </c>
       <c r="C494" t="n">
-        <v>8.647644060000001e-15</v>
+        <v>9.40271472e-15</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>3.0613</v>
+        <v>3.01857</v>
       </c>
       <c r="B495" t="n">
-        <v>1.571887206e-13</v>
+        <v>2.82342888e-13</v>
       </c>
       <c r="C495" t="n">
-        <v>7.809557759999999e-15</v>
+        <v>8.530601939999998e-15</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>3.06147</v>
+        <v>3.01898</v>
       </c>
       <c r="B496" t="n">
-        <v>1.54118808e-13</v>
+        <v>2.75692986e-13</v>
       </c>
       <c r="C496" t="n">
-        <v>8.6290128e-15</v>
+        <v>8.52847128e-15</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>3.06178</v>
+        <v>3.02004</v>
       </c>
       <c r="B497" t="n">
-        <v>1.724553e-13</v>
+        <v>2.2995909e-13</v>
       </c>
       <c r="C497" t="n">
-        <v>8.422547039999999e-15</v>
+        <v>8.42313978e-15</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>3.062</v>
+        <v>3.02218</v>
       </c>
       <c r="B498" t="n">
-        <v>1.8762624e-13</v>
+        <v>2.01866418e-13</v>
       </c>
       <c r="C498" t="n">
-        <v>9.439576739999999e-15</v>
+        <v>8.06953032e-15</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>3.06227</v>
+        <v>3.02247</v>
       </c>
       <c r="B499" t="n">
-        <v>1.72163736e-13</v>
+        <v>1.9353762e-13</v>
       </c>
       <c r="C499" t="n">
-        <v>8.863513560000001e-15</v>
+        <v>6.1360605e-15</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>3.06258</v>
+        <v>3.02586</v>
       </c>
       <c r="B500" t="n">
-        <v>1.597974174e-13</v>
+        <v>1.60037397e-13</v>
       </c>
       <c r="C500" t="n">
-        <v>7.217794980000001e-15</v>
+        <v>6.91349508e-15</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>3.0628</v>
+        <v>3.02634</v>
       </c>
       <c r="B501" t="n">
-        <v>1.79382348e-13</v>
+        <v>1.7176644e-13</v>
       </c>
       <c r="C501" t="n">
-        <v>8.35519896e-15</v>
+        <v>6.726798e-15</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>3.06312</v>
+        <v>3.02991</v>
       </c>
       <c r="B502" t="n">
-        <v>1.96975512e-13</v>
+        <v>1.513526346e-13</v>
       </c>
       <c r="C502" t="n">
-        <v>9.01097766e-15</v>
+        <v>6.642500760000002e-15</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>3.06324</v>
+        <v>3.03034</v>
       </c>
       <c r="B503" t="n">
-        <v>2.17934478e-13</v>
+        <v>1.567936674e-13</v>
       </c>
       <c r="C503" t="n">
-        <v>1.005373548e-14</v>
+        <v>6.316621919999999e-15</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>3.06353</v>
+        <v>3.03203</v>
       </c>
       <c r="B504" t="n">
-        <v>2.05855398e-13</v>
+        <v>1.55128068e-13</v>
       </c>
       <c r="C504" t="n">
-        <v>5.405003819999999e-15</v>
+        <v>5.5212129e-15</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>3.06375</v>
+        <v>3.03244</v>
       </c>
       <c r="B505" t="n">
-        <v>1.98547074e-13</v>
+        <v>1.84503942e-13</v>
       </c>
       <c r="C505" t="n">
-        <v>5.01272208e-15</v>
+        <v>7.106135579999999e-15</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>3.06404</v>
+        <v>3.033</v>
       </c>
       <c r="B506" t="n">
-        <v>2.07039276e-13</v>
+        <v>1.72908666e-13</v>
       </c>
       <c r="C506" t="n">
-        <v>5.269490639999999e-15</v>
+        <v>7.90317864e-15</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>3.06418</v>
+        <v>3.0335</v>
       </c>
       <c r="B507" t="n">
-        <v>2.04144462e-13</v>
+        <v>2.9728314e-13</v>
       </c>
       <c r="C507" t="n">
-        <v>5.56496352e-15</v>
+        <v>7.37636094e-15</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>3.06445</v>
+        <v>3.0336</v>
       </c>
       <c r="B508" t="n">
-        <v>1.90191042e-13</v>
+        <v>2.14794558e-13</v>
       </c>
       <c r="C508" t="n">
-        <v>6.068119680000001e-15</v>
+        <v>7.73831682e-15</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>3.06481</v>
+        <v>3.03367</v>
       </c>
       <c r="B509" t="n">
-        <v>1.83634056e-13</v>
+        <v>4.19057568e-13</v>
       </c>
       <c r="C509" t="n">
-        <v>5.0368482e-15</v>
+        <v>9.528247439999998e-15</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>3.06498</v>
+        <v>3.03399</v>
       </c>
       <c r="B510" t="n">
-        <v>1.88472096e-13</v>
+        <v>2.32744968e-13</v>
       </c>
       <c r="C510" t="n">
-        <v>5.3861643e-15</v>
+        <v>6.88562028e-15</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>3.06532</v>
+        <v>3.03401</v>
       </c>
       <c r="B511" t="n">
-        <v>1.83682116e-13</v>
+        <v>1.063809702e-12</v>
       </c>
       <c r="C511" t="n">
-        <v>5.37499836e-15</v>
+        <v>1.483359084e-14</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>3.06547</v>
+        <v>3.03423</v>
       </c>
       <c r="B512" t="n">
-        <v>1.89362808e-13</v>
+        <v>5.76593442e-13</v>
       </c>
       <c r="C512" t="n">
-        <v>5.14171512e-15</v>
+        <v>8.881952580000001e-15</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>3.06583</v>
+        <v>3.03432</v>
       </c>
       <c r="B513" t="n">
-        <v>1.68147522e-13</v>
+        <v>3.05627958e-13</v>
       </c>
       <c r="C513" t="n">
-        <v>5.201758080000001e-15</v>
+        <v>6.58585404e-15</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>3.06603</v>
+        <v>3.03444</v>
       </c>
       <c r="B514" t="n">
-        <v>1.60441902e-13</v>
+        <v>8.85117816e-13</v>
       </c>
       <c r="C514" t="n">
-        <v>4.95524232e-15</v>
+        <v>9.436869359999999e-15</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>3.0662</v>
+        <v>3.03452</v>
       </c>
       <c r="B515" t="n">
-        <v>1.67046948e-13</v>
+        <v>4.50309384e-13</v>
       </c>
       <c r="C515" t="n">
-        <v>5.72966514e-15</v>
+        <v>1.012718718e-14</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>3.06658</v>
+        <v>3.03483</v>
       </c>
       <c r="B516" t="n">
-        <v>1.61635392e-13</v>
+        <v>7.8199227e-13</v>
       </c>
       <c r="C516" t="n">
-        <v>4.86424872e-15</v>
+        <v>1.493329932e-14</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>3.06707</v>
+        <v>3.03488</v>
       </c>
       <c r="B517" t="n">
-        <v>1.6132941e-13</v>
+        <v>5.8092525e-13</v>
       </c>
       <c r="C517" t="n">
-        <v>5.417595539999999e-15</v>
+        <v>9.715809599999999e-15</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>3.06758</v>
+        <v>3.03505</v>
       </c>
       <c r="B518" t="n">
-        <v>1.365274062e-13</v>
+        <v>1.069584912e-12</v>
       </c>
       <c r="C518" t="n">
-        <v>4.90482738e-15</v>
+        <v>1.78922574e-14</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>3.06787</v>
+        <v>3.03594</v>
       </c>
       <c r="B519" t="n">
-        <v>1.461166578e-13</v>
+        <v>4.63397724e-13</v>
       </c>
       <c r="C519" t="n">
-        <v>5.342509799999999e-15</v>
+        <v>1.164160584e-14</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>3.06913</v>
+        <v>3.03698</v>
       </c>
       <c r="B520" t="n">
-        <v>1.483806042e-13</v>
+        <v>2.49205518e-13</v>
       </c>
       <c r="C520" t="n">
-        <v>5.338552860000001e-15</v>
+        <v>8.78531994e-15</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>3.06998</v>
+        <v>3.03799</v>
       </c>
       <c r="B521" t="n">
-        <v>1.584889038e-13</v>
+        <v>2.13231006e-13</v>
       </c>
       <c r="C521" t="n">
-        <v>5.23951722e-15</v>
+        <v>8.46780354e-15</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>3.07095</v>
+        <v>3.03879</v>
       </c>
       <c r="B522" t="n">
-        <v>2.08058148e-13</v>
+        <v>2.261062799999999e-13</v>
       </c>
       <c r="C522" t="n">
-        <v>5.03074458e-15</v>
+        <v>6.476373360000002e-15</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>3.07209</v>
+        <v>3.03898</v>
       </c>
       <c r="B523" t="n">
-        <v>3.59461566e-13</v>
+        <v>2.03367492e-13</v>
       </c>
       <c r="C523" t="n">
-        <v>7.630982820000001e-15</v>
+        <v>8.662734900000001e-15</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>3.07245</v>
+        <v>3.04002</v>
       </c>
       <c r="B524" t="n">
-        <v>5.05669698e-13</v>
+        <v>2.27040246e-13</v>
       </c>
       <c r="C524" t="n">
-        <v>7.495822079999999e-15</v>
+        <v>6.68564262e-15</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>3.07279</v>
+        <v>3.04202</v>
       </c>
       <c r="B525" t="n">
-        <v>8.525844000000001e-13</v>
+        <v>2.11212486e-13</v>
       </c>
       <c r="C525" t="n">
-        <v>1.124613612e-14</v>
+        <v>7.918141319999999e-15</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>3.07309</v>
+        <v>3.04296</v>
       </c>
       <c r="B526" t="n">
-        <v>1.403709246e-12</v>
+        <v>2.11563324e-13</v>
       </c>
       <c r="C526" t="n">
-        <v>1.526134086e-14</v>
+        <v>6.24366684e-15</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>3.07328</v>
+        <v>3.04591</v>
       </c>
       <c r="B527" t="n">
-        <v>1.95081948e-12</v>
+        <v>1.95568956e-13</v>
       </c>
       <c r="C527" t="n">
-        <v>1.592697186e-14</v>
+        <v>8.026052039999999e-15</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>3.07362</v>
+        <v>3.04695</v>
       </c>
       <c r="B528" t="n">
-        <v>1.98109728e-12</v>
+        <v>1.74702906e-13</v>
       </c>
       <c r="C528" t="n">
-        <v>1.65643596e-14</v>
+        <v>6.81091902e-15</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>3.07384</v>
+        <v>3.04891</v>
       </c>
       <c r="B529" t="n">
-        <v>1.55828142e-12</v>
+        <v>1.67940864e-13</v>
       </c>
       <c r="C529" t="n">
-        <v>1.61973414e-14</v>
+        <v>6.2763156e-15</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>3.07401</v>
+        <v>3.05</v>
       </c>
       <c r="B530" t="n">
-        <v>1.247224284e-12</v>
+        <v>1.309156002e-13</v>
       </c>
       <c r="C530" t="n">
-        <v>1.332473112e-14</v>
+        <v>7.05030588e-15</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>3.0743</v>
+        <v>3.0529</v>
       </c>
       <c r="B531" t="n">
-        <v>8.45171946e-13</v>
+        <v>1.379403702e-13</v>
       </c>
       <c r="C531" t="n">
-        <v>1.233384606e-14</v>
+        <v>5.761945439999999e-15</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>3.07452</v>
+        <v>3.05401</v>
       </c>
       <c r="B532" t="n">
-        <v>6.58937844e-13</v>
+        <v>1.286466876e-13</v>
       </c>
       <c r="C532" t="n">
-        <v>1.076635314e-14</v>
+        <v>6.78096162e-15</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>3.07505</v>
+        <v>3.05694</v>
       </c>
       <c r="B533" t="n">
-        <v>3.9542967e-13</v>
+        <v>1.361645532e-13</v>
       </c>
       <c r="C533" t="n">
-        <v>8.021502360000001e-15</v>
+        <v>6.21024912e-15</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>3.07537</v>
+        <v>3.05801</v>
       </c>
       <c r="B534" t="n">
-        <v>3.32604036e-13</v>
+        <v>1.299407832e-13</v>
       </c>
       <c r="C534" t="n">
-        <v>8.519932619999999e-15</v>
+        <v>7.07005854e-15</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>3.07593</v>
+        <v>3.05997</v>
       </c>
       <c r="B535" t="n">
-        <v>2.70228564e-13</v>
+        <v>1.386692802e-13</v>
       </c>
       <c r="C535" t="n">
-        <v>7.676511660000002e-15</v>
+        <v>7.09407252e-15</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>3.07644</v>
+        <v>3.06048</v>
       </c>
       <c r="B536" t="n">
-        <v>2.302842959999999e-13</v>
+        <v>1.73219454e-13</v>
       </c>
       <c r="C536" t="n">
-        <v>7.09472934e-15</v>
+        <v>8.48864556e-15</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>3.07697</v>
+        <v>3.06094</v>
       </c>
       <c r="B537" t="n">
-        <v>2.12188104e-13</v>
+        <v>1.87525314e-13</v>
       </c>
       <c r="C537" t="n">
-        <v>6.85579104e-15</v>
+        <v>5.89250844e-15</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>3.07801</v>
+        <v>3.06096</v>
       </c>
       <c r="B538" t="n">
-        <v>1.97763696e-13</v>
+        <v>1.551903858e-13</v>
       </c>
       <c r="C538" t="n">
-        <v>5.571515699999999e-15</v>
+        <v>8.647644060000001e-15</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>3.08001</v>
+        <v>3.0613</v>
       </c>
       <c r="B539" t="n">
-        <v>1.7140599e-13</v>
+        <v>1.571887206e-13</v>
       </c>
       <c r="C539" t="n">
-        <v>8.38164798e-15</v>
+        <v>7.809557759999999e-15</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>3.08205</v>
+        <v>3.06147</v>
       </c>
       <c r="B540" t="n">
-        <v>1.66465422e-13</v>
+        <v>1.54118808e-13</v>
       </c>
       <c r="C540" t="n">
-        <v>6.59000322e-15</v>
+        <v>8.6290128e-15</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>3.0829</v>
+        <v>3.06178</v>
       </c>
       <c r="B541" t="n">
-        <v>1.8130635e-13</v>
+        <v>1.724553e-13</v>
       </c>
       <c r="C541" t="n">
-        <v>5.98133934e-15</v>
+        <v>8.422547039999999e-15</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>3.08356</v>
+        <v>3.062</v>
       </c>
       <c r="B542" t="n">
-        <v>1.6547058e-13</v>
+        <v>1.8762624e-13</v>
       </c>
       <c r="C542" t="n">
-        <v>6.44990832e-15</v>
+        <v>9.439576739999999e-15</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>3.08506</v>
+        <v>3.06227</v>
       </c>
       <c r="B543" t="n">
-        <v>1.69775154e-13</v>
+        <v>1.72163736e-13</v>
       </c>
       <c r="C543" t="n">
-        <v>6.411876839999999e-15</v>
+        <v>8.863513560000001e-15</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>3.08604</v>
+        <v>3.06258</v>
       </c>
       <c r="B544" t="n">
-        <v>1.71417204e-13</v>
+        <v>1.597974174e-13</v>
       </c>
       <c r="C544" t="n">
-        <v>6.89201226e-15</v>
+        <v>7.217794980000001e-15</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>3.08798</v>
+        <v>3.0628</v>
       </c>
       <c r="B545" t="n">
-        <v>1.66761792e-13</v>
+        <v>1.79382348e-13</v>
       </c>
       <c r="C545" t="n">
-        <v>5.858514e-15</v>
+        <v>8.35519896e-15</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>3.08898</v>
+        <v>3.06292</v>
       </c>
       <c r="B546" t="n">
-        <v>1.6926732e-13</v>
+        <v>2.14831404e-13</v>
       </c>
       <c r="C546" t="n">
-        <v>5.74472394e-15</v>
+        <v>6.42526956e-15</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>3.08998</v>
+        <v>3.06312</v>
       </c>
       <c r="B547" t="n">
-        <v>1.72466514e-13</v>
+        <v>1.96975512e-13</v>
       </c>
       <c r="C547" t="n">
-        <v>5.85792126e-15</v>
+        <v>9.01097766e-15</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>3.09102</v>
+        <v>3.06324</v>
       </c>
       <c r="B548" t="n">
-        <v>1.8444627e-13</v>
+        <v>2.17934478e-13</v>
       </c>
       <c r="C548" t="n">
-        <v>5.77314342e-15</v>
+        <v>1.005373548e-14</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>3.09197</v>
+        <v>3.06353</v>
       </c>
       <c r="B549" t="n">
-        <v>1.82573532e-13</v>
+        <v>2.05855398e-13</v>
       </c>
       <c r="C549" t="n">
-        <v>6.578324640000001e-15</v>
+        <v>5.405003819999999e-15</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>3.09305</v>
+        <v>3.06375</v>
       </c>
       <c r="B550" t="n">
-        <v>1.78523676e-13</v>
+        <v>1.98547074e-13</v>
       </c>
       <c r="C550" t="n">
-        <v>6.28341246e-15</v>
+        <v>5.01272208e-15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>3.09412</v>
+        <v>3.06389</v>
       </c>
       <c r="B551" t="n">
-        <v>1.82495034e-13</v>
+        <v>2.06195022e-13</v>
       </c>
       <c r="C551" t="n">
-        <v>6.42485304e-15</v>
+        <v>7.320611340000001e-15</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>3.09509</v>
+        <v>3.06404</v>
       </c>
       <c r="B552" t="n">
-        <v>2.00421414e-13</v>
+        <v>2.07039276e-13</v>
       </c>
       <c r="C552" t="n">
-        <v>6.52778154e-15</v>
+        <v>5.269490639999999e-15</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>3.09597</v>
+        <v>3.06418</v>
       </c>
       <c r="B553" t="n">
-        <v>1.88001108e-13</v>
+        <v>2.04144462e-13</v>
       </c>
       <c r="C553" t="n">
-        <v>7.59830202e-15</v>
+        <v>5.56496352e-15</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>3.09799</v>
+        <v>3.06445</v>
       </c>
       <c r="B554" t="n">
-        <v>1.99367298e-13</v>
+        <v>1.90191042e-13</v>
       </c>
       <c r="C554" t="n">
-        <v>6.42744828e-15</v>
+        <v>6.068119680000001e-15</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>3.0996</v>
+        <v>3.06455</v>
       </c>
       <c r="B555" t="n">
-        <v>2.17304892e-13</v>
+        <v>1.96764048e-13</v>
       </c>
       <c r="C555" t="n">
-        <v>8.047502819999999e-15</v>
+        <v>7.79775102e-15</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>3.09994</v>
+        <v>3.06481</v>
       </c>
       <c r="B556" t="n">
-        <v>2.3944293e-13</v>
+        <v>1.83634056e-13</v>
       </c>
       <c r="C556" t="n">
-        <v>6.22359378e-15</v>
+        <v>5.0368482e-15</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>3.10065</v>
+        <v>3.06486</v>
       </c>
       <c r="B557" t="n">
-        <v>2.72312766e-13</v>
+        <v>1.7964027e-13</v>
       </c>
       <c r="C557" t="n">
-        <v>7.61273604e-15</v>
+        <v>7.117317539999999e-15</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>3.10126</v>
+        <v>3.06498</v>
       </c>
       <c r="B558" t="n">
-        <v>3.44753604e-13</v>
+        <v>1.88472096e-13</v>
       </c>
       <c r="C558" t="n">
-        <v>7.93177434e-15</v>
+        <v>5.3861643e-15</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>3.10145</v>
+        <v>3.06532</v>
       </c>
       <c r="B559" t="n">
-        <v>3.78789696e-13</v>
+        <v>1.83682116e-13</v>
       </c>
       <c r="C559" t="n">
-        <v>9.732967020000001e-15</v>
+        <v>5.37499836e-15</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>3.10175</v>
+        <v>3.06547</v>
       </c>
       <c r="B560" t="n">
-        <v>4.70206224e-13</v>
+        <v>1.89362808e-13</v>
       </c>
       <c r="C560" t="n">
-        <v>9.126417780000001e-15</v>
+        <v>5.14171512e-15</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>3.10211</v>
+        <v>3.06583</v>
       </c>
       <c r="B561" t="n">
-        <v>6.96866796e-13</v>
+        <v>1.68147522e-13</v>
       </c>
       <c r="C561" t="n">
-        <v>1.161616608e-14</v>
+        <v>5.201758080000001e-15</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>3.10231</v>
+        <v>3.06603</v>
       </c>
       <c r="B562" t="n">
-        <v>8.15477274e-13</v>
+        <v>1.60441902e-13</v>
       </c>
       <c r="C562" t="n">
-        <v>1.279014372e-14</v>
+        <v>4.95524232e-15</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>3.10248</v>
+        <v>3.0662</v>
       </c>
       <c r="B563" t="n">
-        <v>8.46131544e-13</v>
+        <v>1.67046948e-13</v>
       </c>
       <c r="C563" t="n">
-        <v>1.29975066e-14</v>
+        <v>5.72966514e-15</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>3.10267</v>
+        <v>3.06658</v>
       </c>
       <c r="B564" t="n">
-        <v>8.21085876e-13</v>
+        <v>1.61635392e-13</v>
       </c>
       <c r="C564" t="n">
-        <v>1.356823512e-14</v>
+        <v>4.86424872e-15</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>3.10301</v>
+        <v>3.06707</v>
       </c>
       <c r="B565" t="n">
-        <v>6.79654908e-13</v>
+        <v>1.6132941e-13</v>
       </c>
       <c r="C565" t="n">
-        <v>1.271191806e-14</v>
+        <v>5.417595539999999e-15</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>3.10353</v>
+        <v>3.06758</v>
       </c>
       <c r="B566" t="n">
-        <v>4.77931068e-13</v>
+        <v>1.365274062e-13</v>
       </c>
       <c r="C566" t="n">
-        <v>9.361174860000002e-15</v>
+        <v>4.90482738e-15</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>3.10401</v>
+        <v>3.06787</v>
       </c>
       <c r="B567" t="n">
-        <v>3.24568404e-13</v>
+        <v>1.461166578e-13</v>
       </c>
       <c r="C567" t="n">
-        <v>8.620954739999999e-15</v>
+        <v>5.342509799999999e-15</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>3.10453</v>
+        <v>3.06913</v>
       </c>
       <c r="B568" t="n">
-        <v>2.822403600000001e-13</v>
+        <v>1.483806042e-13</v>
       </c>
       <c r="C568" t="n">
-        <v>7.915722300000001e-15</v>
+        <v>5.338552860000001e-15</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>3.10506</v>
+        <v>3.06998</v>
       </c>
       <c r="B569" t="n">
-        <v>2.63907072e-13</v>
+        <v>1.584889038e-13</v>
       </c>
       <c r="C569" t="n">
-        <v>6.61829454e-15</v>
+        <v>5.23951722e-15</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>3.10538</v>
+        <v>3.07042</v>
       </c>
       <c r="B570" t="n">
-        <v>2.61199692e-13</v>
+        <v>2.38114872e-13</v>
       </c>
       <c r="C570" t="n">
-        <v>6.84074826e-15</v>
+        <v>7.1051904e-15</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>3.10592</v>
+        <v>3.07095</v>
       </c>
       <c r="B571" t="n">
-        <v>2.47824594e-13</v>
+        <v>2.08058148e-13</v>
       </c>
       <c r="C571" t="n">
-        <v>6.92699994e-15</v>
+        <v>5.03074458e-15</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>3.10658</v>
+        <v>3.07097</v>
       </c>
       <c r="B572" t="n">
-        <v>2.379771000000001e-13</v>
+        <v>3.16420632e-13</v>
       </c>
       <c r="C572" t="n">
-        <v>7.375976459999999e-15</v>
+        <v>8.66951136e-15</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>3.10709</v>
+        <v>3.07192</v>
       </c>
       <c r="B573" t="n">
-        <v>2.36682684e-13</v>
+        <v>7.7415849e-13</v>
       </c>
       <c r="C573" t="n">
-        <v>7.56807228e-15</v>
+        <v>2.13879816e-14</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>3.10745</v>
+        <v>3.07204</v>
       </c>
       <c r="B574" t="n">
-        <v>2.208357e-13</v>
+        <v>1.177489224e-12</v>
       </c>
       <c r="C574" t="n">
-        <v>7.7741055e-15</v>
+        <v>2.10645378e-14</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3.10784</v>
+        <v>3.07209</v>
       </c>
       <c r="B575" t="n">
-        <v>2.39045634e-13</v>
+        <v>3.59461566e-13</v>
       </c>
       <c r="C575" t="n">
-        <v>8.15539752e-15</v>
+        <v>7.630982820000001e-15</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3.112</v>
+        <v>3.07241</v>
       </c>
       <c r="B576" t="n">
-        <v>2.45623446e-13</v>
+        <v>1.87251372e-12</v>
       </c>
       <c r="C576" t="n">
-        <v>8.783237339999999e-15</v>
+        <v>3.44843316e-14</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3.11559</v>
+        <v>3.07245</v>
       </c>
       <c r="B577" t="n">
-        <v>2.622474e-13</v>
+        <v>5.05669698e-13</v>
       </c>
       <c r="C577" t="n">
-        <v>8.68376916e-15</v>
+        <v>7.495822079999999e-15</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3.12001</v>
+        <v>3.0726</v>
       </c>
       <c r="B578" t="n">
-        <v>3.021372e-13</v>
+        <v>2.07271566e-12</v>
       </c>
       <c r="C578" t="n">
-        <v>9.36870426e-15</v>
+        <v>2.30436486e-14</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3.124</v>
+        <v>3.07279</v>
       </c>
       <c r="B579" t="n">
-        <v>2.9341431e-13</v>
+        <v>8.525844000000001e-13</v>
       </c>
       <c r="C579" t="n">
-        <v>8.99441298e-15</v>
+        <v>1.124613612e-14</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3.1349</v>
+        <v>3.07292</v>
       </c>
       <c r="B580" t="n">
-        <v>2.03015052e-13</v>
+        <v>1.7632413e-12</v>
       </c>
       <c r="C580" t="n">
-        <v>5.78339622e-15</v>
+        <v>2.03511672e-14</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3.13895</v>
+        <v>3.07309</v>
       </c>
       <c r="B581" t="n">
-        <v>1.82102544e-13</v>
+        <v>1.462747752e-12</v>
       </c>
       <c r="C581" t="n">
-        <v>6.0768666e-15</v>
+        <v>1.97986374e-14</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3.14273</v>
+        <v>3.07309</v>
       </c>
       <c r="B582" t="n">
-        <v>1.63761246e-13</v>
+        <v>1.403709246e-12</v>
       </c>
       <c r="C582" t="n">
-        <v>5.683191120000001e-15</v>
+        <v>1.526134086e-14</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3.14764</v>
+        <v>3.07328</v>
       </c>
       <c r="B583" t="n">
-        <v>1.236780846e-13</v>
+        <v>1.95081948e-12</v>
       </c>
       <c r="C583" t="n">
-        <v>6.730530660000002e-15</v>
+        <v>1.592697186e-14</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3.15204</v>
+        <v>3.0734</v>
       </c>
       <c r="B584" t="n">
-        <v>1.075111812e-13</v>
+        <v>1.303215786e-12</v>
       </c>
       <c r="C584" t="n">
-        <v>5.86570698e-15</v>
+        <v>2.01304116e-14</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3.157</v>
+        <v>3.07362</v>
       </c>
       <c r="B585" t="n">
-        <v>1.020664638e-13</v>
+        <v>1.98109728e-12</v>
       </c>
       <c r="C585" t="n">
-        <v>4.84158042e-15</v>
+        <v>1.65643596e-14</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3.15782</v>
+        <v>3.07374</v>
       </c>
       <c r="B586" t="n">
-        <v>9.788236019999999e-14</v>
+        <v>9.642373920000001e-13</v>
       </c>
       <c r="C586" t="n">
-        <v>5.302507860000001e-15</v>
+        <v>1.69345818e-14</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3.15836</v>
+        <v>3.07384</v>
       </c>
       <c r="B587" t="n">
-        <v>1.028246904e-13</v>
+        <v>1.55828142e-12</v>
       </c>
       <c r="C587" t="n">
-        <v>4.3779456e-15</v>
+        <v>1.61973414e-14</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3.15887</v>
+        <v>3.07398</v>
       </c>
       <c r="B588" t="n">
-        <v>1.150896024e-13</v>
+        <v>6.47885646e-13</v>
       </c>
       <c r="C588" t="n">
-        <v>5.66073108e-15</v>
+        <v>1.083813876e-14</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3.15981</v>
+        <v>3.07401</v>
       </c>
       <c r="B589" t="n">
-        <v>1.243962612e-13</v>
+        <v>1.247224284e-12</v>
       </c>
       <c r="C589" t="n">
-        <v>7.044666840000001e-15</v>
+        <v>1.332473112e-14</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3.16087</v>
+        <v>3.0743</v>
       </c>
       <c r="B590" t="n">
-        <v>4.053893040000001e-13</v>
+        <v>8.45171946e-13</v>
       </c>
       <c r="C590" t="n">
-        <v>8.103700980000001e-15</v>
+        <v>1.233384606e-14</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3.16166</v>
+        <v>3.07452</v>
       </c>
       <c r="B591" t="n">
-        <v>1.591591806e-13</v>
+        <v>6.58937844e-13</v>
       </c>
       <c r="C591" t="n">
-        <v>4.075071480000001e-15</v>
+        <v>1.076635314e-14</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>3.16249</v>
+        <v>3.07452</v>
       </c>
       <c r="B592" t="n">
-        <v>1.357888842e-13</v>
+        <v>4.081896e-13</v>
       </c>
       <c r="C592" t="n">
-        <v>5.32474362e-15</v>
+        <v>1.062161244e-14</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>3.16316</v>
+        <v>3.07491</v>
       </c>
       <c r="B593" t="n">
-        <v>1.289960838e-13</v>
+        <v>3.31963236e-13</v>
       </c>
       <c r="C593" t="n">
-        <v>4.786904160000001e-15</v>
+        <v>9.92696922e-15</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>3.16392</v>
+        <v>3.07505</v>
       </c>
       <c r="B594" t="n">
-        <v>1.208729826e-13</v>
+        <v>3.9542967e-13</v>
       </c>
       <c r="C594" t="n">
-        <v>4.01606982e-15</v>
+        <v>8.021502360000001e-15</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>3.16525</v>
+        <v>3.07537</v>
       </c>
       <c r="B595" t="n">
-        <v>1.244263788e-13</v>
+        <v>3.32604036e-13</v>
       </c>
       <c r="C595" t="n">
-        <v>3.64419756e-15</v>
+        <v>8.519932619999999e-15</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>3.16661</v>
+        <v>3.0759</v>
       </c>
       <c r="B596" t="n">
-        <v>1.137774042e-13</v>
+        <v>2.24353692e-13</v>
       </c>
       <c r="C596" t="n">
-        <v>5.17220118e-15</v>
+        <v>7.54202376e-15</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>3.16764</v>
+        <v>3.07593</v>
       </c>
       <c r="B597" t="n">
-        <v>1.309391496e-13</v>
+        <v>2.70228564e-13</v>
       </c>
       <c r="C597" t="n">
-        <v>5.3897688e-15</v>
+        <v>7.676511660000002e-15</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>3.1689</v>
+        <v>3.07644</v>
       </c>
       <c r="B598" t="n">
-        <v>1.515751524e-13</v>
+        <v>2.302842959999999e-13</v>
       </c>
       <c r="C598" t="n">
-        <v>5.17032684e-15</v>
+        <v>7.09472934e-15</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>3.17043</v>
+        <v>3.07697</v>
       </c>
       <c r="B599" t="n">
-        <v>1.74619602e-13</v>
+        <v>2.12188104e-13</v>
       </c>
       <c r="C599" t="n">
-        <v>5.73224436e-15</v>
+        <v>6.85579104e-15</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>3.17279</v>
+        <v>3.07784</v>
       </c>
       <c r="B600" t="n">
-        <v>2.411170199999999e-13</v>
+        <v>1.90416924e-13</v>
       </c>
       <c r="C600" t="n">
-        <v>7.47488394e-15</v>
+        <v>6.880557960000002e-15</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>3.17383</v>
+        <v>3.07801</v>
       </c>
       <c r="B601" t="n">
-        <v>2.9628189e-13</v>
+        <v>1.97763696e-13</v>
       </c>
       <c r="C601" t="n">
-        <v>6.5296719e-15</v>
+        <v>5.571515699999999e-15</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>3.17484</v>
+        <v>3.08001</v>
       </c>
       <c r="B602" t="n">
-        <v>3.41600868e-13</v>
+        <v>1.7140599e-13</v>
       </c>
       <c r="C602" t="n">
-        <v>9.03529602e-15</v>
+        <v>8.38164798e-15</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>3.17728</v>
+        <v>3.0819</v>
       </c>
       <c r="B603" t="n">
-        <v>4.2635628e-13</v>
+        <v>1.75135446e-13</v>
       </c>
       <c r="C603" t="n">
-        <v>8.725068720000001e-15</v>
+        <v>8.853885540000001e-15</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>3.17815</v>
+        <v>3.08205</v>
       </c>
       <c r="B604" t="n">
-        <v>4.04726076e-13</v>
+        <v>1.66465422e-13</v>
       </c>
       <c r="C604" t="n">
-        <v>1.18303695e-14</v>
+        <v>6.59000322e-15</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.0829</v>
       </c>
       <c r="B605" t="n">
-        <v>1.56816576e-13</v>
+        <v>1.8130635e-13</v>
       </c>
       <c r="C605" t="n">
-        <v>4.5902907e-15</v>
+        <v>5.98133934e-15</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.08356</v>
       </c>
       <c r="B606" t="n">
-        <v>2.26908882e-13</v>
+        <v>1.6547058e-13</v>
       </c>
       <c r="C606" t="n">
-        <v>7.592086260000001e-15</v>
+        <v>6.44990832e-15</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>3.18983</v>
+        <v>3.08506</v>
       </c>
       <c r="B607" t="n">
-        <v>1.01435436e-13</v>
+        <v>1.69775154e-13</v>
       </c>
       <c r="C607" t="n">
-        <v>2.44167228e-15</v>
+        <v>6.411876839999999e-15</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>3.19196</v>
+        <v>3.08579</v>
       </c>
       <c r="B608" t="n">
-        <v>9.01799442e-14</v>
+        <v>1.598190444e-13</v>
       </c>
       <c r="C608" t="n">
-        <v>3.18360654e-15</v>
+        <v>5.998032180000001e-15</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>3.19392</v>
+        <v>3.08604</v>
       </c>
       <c r="B609" t="n">
-        <v>7.16576202e-14</v>
+        <v>1.71417204e-13</v>
       </c>
       <c r="C609" t="n">
-        <v>5.36416884e-15</v>
+        <v>6.89201226e-15</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
+        <v>3.08798</v>
+      </c>
+      <c r="B610" t="n">
+        <v>1.66761792e-13</v>
+      </c>
+      <c r="C610" t="n">
+        <v>5.858514e-15</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>3.08898</v>
+      </c>
+      <c r="B611" t="n">
+        <v>1.6926732e-13</v>
+      </c>
+      <c r="C611" t="n">
+        <v>5.74472394e-15</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>3.08959</v>
+      </c>
+      <c r="B612" t="n">
+        <v>1.71031122e-13</v>
+      </c>
+      <c r="C612" t="n">
+        <v>5.88757428e-15</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>3.08998</v>
+      </c>
+      <c r="B613" t="n">
+        <v>1.72466514e-13</v>
+      </c>
+      <c r="C613" t="n">
+        <v>5.85792126e-15</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>3.09102</v>
+      </c>
+      <c r="B614" t="n">
+        <v>1.8444627e-13</v>
+      </c>
+      <c r="C614" t="n">
+        <v>5.77314342e-15</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>3.09197</v>
+      </c>
+      <c r="B615" t="n">
+        <v>1.82573532e-13</v>
+      </c>
+      <c r="C615" t="n">
+        <v>6.578324640000001e-15</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>3.09305</v>
+      </c>
+      <c r="B616" t="n">
+        <v>1.78523676e-13</v>
+      </c>
+      <c r="C616" t="n">
+        <v>6.28341246e-15</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>3.0937</v>
+      </c>
+      <c r="B617" t="n">
+        <v>1.99734156e-13</v>
+      </c>
+      <c r="C617" t="n">
+        <v>6.34685166e-15</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>3.09412</v>
+      </c>
+      <c r="B618" t="n">
+        <v>1.82495034e-13</v>
+      </c>
+      <c r="C618" t="n">
+        <v>6.42485304e-15</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>3.09509</v>
+      </c>
+      <c r="B619" t="n">
+        <v>2.00421414e-13</v>
+      </c>
+      <c r="C619" t="n">
+        <v>6.52778154e-15</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>3.09597</v>
+      </c>
+      <c r="B620" t="n">
+        <v>1.88001108e-13</v>
+      </c>
+      <c r="C620" t="n">
+        <v>7.59830202e-15</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>3.09784</v>
+      </c>
+      <c r="B621" t="n">
+        <v>2.06236674e-13</v>
+      </c>
+      <c r="C621" t="n">
+        <v>6.79666122e-15</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>3.09799</v>
+      </c>
+      <c r="B622" t="n">
+        <v>1.99367298e-13</v>
+      </c>
+      <c r="C622" t="n">
+        <v>6.42744828e-15</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>3.09899</v>
+      </c>
+      <c r="B623" t="n">
+        <v>2.3176134e-13</v>
+      </c>
+      <c r="C623" t="n">
+        <v>6.0144687e-15</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>3.09945</v>
+      </c>
+      <c r="B624" t="n">
+        <v>2.55408462e-13</v>
+      </c>
+      <c r="C624" t="n">
+        <v>5.94699246e-15</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>3.0996</v>
+      </c>
+      <c r="B625" t="n">
+        <v>2.17304892e-13</v>
+      </c>
+      <c r="C625" t="n">
+        <v>8.047502819999999e-15</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>3.09994</v>
+      </c>
+      <c r="B626" t="n">
+        <v>2.3944293e-13</v>
+      </c>
+      <c r="C626" t="n">
+        <v>6.22359378e-15</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>3.09997</v>
+      </c>
+      <c r="B627" t="n">
+        <v>2.90460222e-13</v>
+      </c>
+      <c r="C627" t="n">
+        <v>8.593720739999999e-15</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>3.1005</v>
+      </c>
+      <c r="B628" t="n">
+        <v>4.21656012e-13</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1.6251489e-14</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>3.10065</v>
+      </c>
+      <c r="B629" t="n">
+        <v>2.72312766e-13</v>
+      </c>
+      <c r="C629" t="n">
+        <v>7.61273604e-15</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>3.1007</v>
+      </c>
+      <c r="B630" t="n">
+        <v>4.71880314e-13</v>
+      </c>
+      <c r="C630" t="n">
+        <v>9.264622319999999e-15</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>3.10126</v>
+      </c>
+      <c r="B631" t="n">
+        <v>3.44753604e-13</v>
+      </c>
+      <c r="C631" t="n">
+        <v>7.93177434e-15</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>3.10145</v>
+      </c>
+      <c r="B632" t="n">
+        <v>3.78789696e-13</v>
+      </c>
+      <c r="C632" t="n">
+        <v>9.732967020000001e-15</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>3.10175</v>
+      </c>
+      <c r="B633" t="n">
+        <v>4.70206224e-13</v>
+      </c>
+      <c r="C633" t="n">
+        <v>9.126417780000001e-15</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>3.10211</v>
+      </c>
+      <c r="B634" t="n">
+        <v>6.96866796e-13</v>
+      </c>
+      <c r="C634" t="n">
+        <v>1.161616608e-14</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>3.10231</v>
+      </c>
+      <c r="B635" t="n">
+        <v>8.15477274e-13</v>
+      </c>
+      <c r="C635" t="n">
+        <v>1.279014372e-14</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>3.10248</v>
+      </c>
+      <c r="B636" t="n">
+        <v>8.46131544e-13</v>
+      </c>
+      <c r="C636" t="n">
+        <v>1.29975066e-14</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>3.10267</v>
+      </c>
+      <c r="B637" t="n">
+        <v>8.21085876e-13</v>
+      </c>
+      <c r="C637" t="n">
+        <v>1.356823512e-14</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>3.10301</v>
+      </c>
+      <c r="B638" t="n">
+        <v>6.79654908e-13</v>
+      </c>
+      <c r="C638" t="n">
+        <v>1.271191806e-14</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>3.10353</v>
+      </c>
+      <c r="B639" t="n">
+        <v>4.77931068e-13</v>
+      </c>
+      <c r="C639" t="n">
+        <v>9.361174860000002e-15</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>3.10401</v>
+      </c>
+      <c r="B640" t="n">
+        <v>3.24568404e-13</v>
+      </c>
+      <c r="C640" t="n">
+        <v>8.620954739999999e-15</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>3.10453</v>
+      </c>
+      <c r="B641" t="n">
+        <v>2.822403600000001e-13</v>
+      </c>
+      <c r="C641" t="n">
+        <v>7.915722300000001e-15</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>3.10489</v>
+      </c>
+      <c r="B642" t="n">
+        <v>2.56954392e-13</v>
+      </c>
+      <c r="C642" t="n">
+        <v>6.99963462e-15</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>3.10506</v>
+      </c>
+      <c r="B643" t="n">
+        <v>2.63907072e-13</v>
+      </c>
+      <c r="C643" t="n">
+        <v>6.61829454e-15</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>3.10538</v>
+      </c>
+      <c r="B644" t="n">
+        <v>2.61199692e-13</v>
+      </c>
+      <c r="C644" t="n">
+        <v>6.84074826e-15</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>3.10592</v>
+      </c>
+      <c r="B645" t="n">
+        <v>2.47824594e-13</v>
+      </c>
+      <c r="C645" t="n">
+        <v>6.92699994e-15</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>3.10658</v>
+      </c>
+      <c r="B646" t="n">
+        <v>2.379771000000001e-13</v>
+      </c>
+      <c r="C646" t="n">
+        <v>7.375976459999999e-15</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>3.10709</v>
+      </c>
+      <c r="B647" t="n">
+        <v>2.36682684e-13</v>
+      </c>
+      <c r="C647" t="n">
+        <v>7.56807228e-15</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>3.10745</v>
+      </c>
+      <c r="B648" t="n">
+        <v>2.208357e-13</v>
+      </c>
+      <c r="C648" t="n">
+        <v>7.7741055e-15</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>3.10784</v>
+      </c>
+      <c r="B649" t="n">
+        <v>2.39045634e-13</v>
+      </c>
+      <c r="C649" t="n">
+        <v>8.15539752e-15</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>3.10882</v>
+      </c>
+      <c r="B650" t="n">
+        <v>2.3329926e-13</v>
+      </c>
+      <c r="C650" t="n">
+        <v>7.28962866e-15</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="B651" t="n">
+        <v>2.45623446e-13</v>
+      </c>
+      <c r="C651" t="n">
+        <v>8.783237339999999e-15</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>3.11278</v>
+      </c>
+      <c r="B652" t="n">
+        <v>2.78416386e-13</v>
+      </c>
+      <c r="C652" t="n">
+        <v>7.51150566e-15</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>3.11559</v>
+      </c>
+      <c r="B653" t="n">
+        <v>2.622474e-13</v>
+      </c>
+      <c r="C653" t="n">
+        <v>8.68376916e-15</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>3.11669</v>
+      </c>
+      <c r="B654" t="n">
+        <v>2.85421932e-13</v>
+      </c>
+      <c r="C654" t="n">
+        <v>7.52510664e-15</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>3.12001</v>
+      </c>
+      <c r="B655" t="n">
+        <v>3.021372e-13</v>
+      </c>
+      <c r="C655" t="n">
+        <v>9.36870426e-15</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>3.12075</v>
+      </c>
+      <c r="B656" t="n">
+        <v>3.00801132e-13</v>
+      </c>
+      <c r="C656" t="n">
+        <v>7.00573824e-15</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="B657" t="n">
+        <v>2.9341431e-13</v>
+      </c>
+      <c r="C657" t="n">
+        <v>8.99441298e-15</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>3.12473</v>
+      </c>
+      <c r="B658" t="n">
+        <v>3.15451422e-13</v>
+      </c>
+      <c r="C658" t="n">
+        <v>8.48781252e-15</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>3.12789</v>
+      </c>
+      <c r="B659" t="n">
+        <v>2.79369576e-13</v>
+      </c>
+      <c r="C659" t="n">
+        <v>7.515478620000001e-15</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>3.12882</v>
+      </c>
+      <c r="B660" t="n">
+        <v>2.81149398e-13</v>
+      </c>
+      <c r="C660" t="n">
+        <v>7.603668720000001e-15</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>3.13272</v>
+      </c>
+      <c r="B661" t="n">
+        <v>2.51590896e-13</v>
+      </c>
+      <c r="C661" t="n">
+        <v>1.001761038e-14</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>3.1349</v>
+      </c>
+      <c r="B662" t="n">
+        <v>2.03015052e-13</v>
+      </c>
+      <c r="C662" t="n">
+        <v>5.78339622e-15</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>3.13676</v>
+      </c>
+      <c r="B663" t="n">
+        <v>2.39393268e-13</v>
+      </c>
+      <c r="C663" t="n">
+        <v>7.120537560000002e-15</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>3.13895</v>
+      </c>
+      <c r="B664" t="n">
+        <v>1.82102544e-13</v>
+      </c>
+      <c r="C664" t="n">
+        <v>6.0768666e-15</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>3.14093</v>
+      </c>
+      <c r="B665" t="n">
+        <v>2.00831526e-13</v>
+      </c>
+      <c r="C665" t="n">
+        <v>7.267088520000001e-15</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>3.14273</v>
+      </c>
+      <c r="B666" t="n">
+        <v>1.63761246e-13</v>
+      </c>
+      <c r="C666" t="n">
+        <v>5.683191120000001e-15</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>3.14278</v>
+      </c>
+      <c r="B667" t="n">
+        <v>1.73794572e-13</v>
+      </c>
+      <c r="C667" t="n">
+        <v>6.20914374e-15</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>3.1468</v>
+      </c>
+      <c r="B668" t="n">
+        <v>1.7685279e-13</v>
+      </c>
+      <c r="C668" t="n">
+        <v>7.234567920000001e-15</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>3.14764</v>
+      </c>
+      <c r="B669" t="n">
+        <v>1.236780846e-13</v>
+      </c>
+      <c r="C669" t="n">
+        <v>6.730530660000002e-15</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>3.15086</v>
+      </c>
+      <c r="B670" t="n">
+        <v>1.547488746e-13</v>
+      </c>
+      <c r="C670" t="n">
+        <v>6.99764814e-15</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>3.15204</v>
+      </c>
+      <c r="B671" t="n">
+        <v>1.075111812e-13</v>
+      </c>
+      <c r="C671" t="n">
+        <v>5.86570698e-15</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>3.1529</v>
+      </c>
+      <c r="B672" t="n">
+        <v>1.420927542e-13</v>
+      </c>
+      <c r="C672" t="n">
+        <v>6.417003239999999e-15</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>3.15511</v>
+      </c>
+      <c r="B673" t="n">
+        <v>1.444653162e-13</v>
+      </c>
+      <c r="C673" t="n">
+        <v>7.266479760000001e-15</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>3.15609</v>
+      </c>
+      <c r="B674" t="n">
+        <v>1.271444922e-13</v>
+      </c>
+      <c r="C674" t="n">
+        <v>8.591702220000001e-15</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B675" t="n">
+        <v>1.461847428e-13</v>
+      </c>
+      <c r="C675" t="n">
+        <v>4.371057e-15</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B676" t="n">
+        <v>1.020664638e-13</v>
+      </c>
+      <c r="C676" t="n">
+        <v>4.84158042e-15</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>3.15782</v>
+      </c>
+      <c r="B677" t="n">
+        <v>9.788236019999999e-14</v>
+      </c>
+      <c r="C677" t="n">
+        <v>5.302507860000001e-15</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>3.15821</v>
+      </c>
+      <c r="B678" t="n">
+        <v>1.419234228e-13</v>
+      </c>
+      <c r="C678" t="n">
+        <v>8.984752919999999e-15</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>3.15836</v>
+      </c>
+      <c r="B679" t="n">
+        <v>1.028246904e-13</v>
+      </c>
+      <c r="C679" t="n">
+        <v>4.3779456e-15</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>3.15887</v>
+      </c>
+      <c r="B680" t="n">
+        <v>1.150896024e-13</v>
+      </c>
+      <c r="C680" t="n">
+        <v>5.66073108e-15</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>3.15905</v>
+      </c>
+      <c r="B681" t="n">
+        <v>1.734966e-13</v>
+      </c>
+      <c r="C681" t="n">
+        <v>9.712829880000001e-15</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>3.15919</v>
+      </c>
+      <c r="B682" t="n">
+        <v>1.7810235e-13</v>
+      </c>
+      <c r="C682" t="n">
+        <v>9.521102519999999e-15</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>3.15956</v>
+      </c>
+      <c r="B683" t="n">
+        <v>3.52228536e-13</v>
+      </c>
+      <c r="C683" t="n">
+        <v>1.230501006e-14</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>3.15976</v>
+      </c>
+      <c r="B684" t="n">
+        <v>7.11241542e-13</v>
+      </c>
+      <c r="C684" t="n">
+        <v>1.581941358e-14</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>3.15981</v>
+      </c>
+      <c r="B685" t="n">
+        <v>1.243962612e-13</v>
+      </c>
+      <c r="C685" t="n">
+        <v>7.044666840000001e-15</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>3.16079</v>
+      </c>
+      <c r="B686" t="n">
+        <v>5.2962921e-13</v>
+      </c>
+      <c r="C686" t="n">
+        <v>1.399596912e-14</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>3.16087</v>
+      </c>
+      <c r="B687" t="n">
+        <v>4.053893040000001e-13</v>
+      </c>
+      <c r="C687" t="n">
+        <v>8.103700980000001e-15</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>3.16166</v>
+      </c>
+      <c r="B688" t="n">
+        <v>1.591591806e-13</v>
+      </c>
+      <c r="C688" t="n">
+        <v>4.075071480000001e-15</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>3.16183</v>
+      </c>
+      <c r="B689" t="n">
+        <v>1.81469754e-13</v>
+      </c>
+      <c r="C689" t="n">
+        <v>9.666628199999999e-15</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>3.16249</v>
+      </c>
+      <c r="B690" t="n">
+        <v>1.357888842e-13</v>
+      </c>
+      <c r="C690" t="n">
+        <v>5.32474362e-15</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>3.16301</v>
+      </c>
+      <c r="B691" t="n">
+        <v>1.65658014e-13</v>
+      </c>
+      <c r="C691" t="n">
+        <v>8.02014066e-15</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>3.16316</v>
+      </c>
+      <c r="B692" t="n">
+        <v>1.289960838e-13</v>
+      </c>
+      <c r="C692" t="n">
+        <v>4.786904160000001e-15</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>3.1637</v>
+      </c>
+      <c r="B693" t="n">
+        <v>1.584411642e-13</v>
+      </c>
+      <c r="C693" t="n">
+        <v>8.773401060000002e-15</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>3.16392</v>
+      </c>
+      <c r="B694" t="n">
+        <v>1.208729826e-13</v>
+      </c>
+      <c r="C694" t="n">
+        <v>4.01606982e-15</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>3.16488</v>
+      </c>
+      <c r="B695" t="n">
+        <v>1.425682278e-13</v>
+      </c>
+      <c r="C695" t="n">
+        <v>8.723226419999999e-15</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>3.16525</v>
+      </c>
+      <c r="B696" t="n">
+        <v>1.244263788e-13</v>
+      </c>
+      <c r="C696" t="n">
+        <v>3.64419756e-15</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>3.16592</v>
+      </c>
+      <c r="B697" t="n">
+        <v>1.71655902e-13</v>
+      </c>
+      <c r="C697" t="n">
+        <v>9.36383418e-15</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>3.16661</v>
+      </c>
+      <c r="B698" t="n">
+        <v>1.137774042e-13</v>
+      </c>
+      <c r="C698" t="n">
+        <v>5.17220118e-15</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>3.1671</v>
+      </c>
+      <c r="B699" t="n">
+        <v>1.62636642e-13</v>
+      </c>
+      <c r="C699" t="n">
+        <v>1.008061704e-14</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>3.16764</v>
+      </c>
+      <c r="B700" t="n">
+        <v>1.309391496e-13</v>
+      </c>
+      <c r="C700" t="n">
+        <v>5.3897688e-15</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>3.16808</v>
+      </c>
+      <c r="B701" t="n">
+        <v>1.7916768e-13</v>
+      </c>
+      <c r="C701" t="n">
+        <v>9.75007638e-15</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>3.1689</v>
+      </c>
+      <c r="B702" t="n">
+        <v>1.515751524e-13</v>
+      </c>
+      <c r="C702" t="n">
+        <v>5.17032684e-15</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>3.16897</v>
+      </c>
+      <c r="B703" t="n">
+        <v>2.1365874e-13</v>
+      </c>
+      <c r="C703" t="n">
+        <v>1.064836584e-14</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>3.17003</v>
+      </c>
+      <c r="B704" t="n">
+        <v>2.27826828e-13</v>
+      </c>
+      <c r="C704" t="n">
+        <v>9.94592088e-15</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>3.17043</v>
+      </c>
+      <c r="B705" t="n">
+        <v>1.74619602e-13</v>
+      </c>
+      <c r="C705" t="n">
+        <v>5.73224436e-15</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>3.17104</v>
+      </c>
+      <c r="B706" t="n">
+        <v>2.58439446e-13</v>
+      </c>
+      <c r="C706" t="n">
+        <v>1.13299848e-14</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="B707" t="n">
+        <v>3.1255821e-13</v>
+      </c>
+      <c r="C707" t="n">
+        <v>1.167539202e-14</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>3.17279</v>
+      </c>
+      <c r="B708" t="n">
+        <v>2.411170199999999e-13</v>
+      </c>
+      <c r="C708" t="n">
+        <v>7.47488394e-15</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>3.17292</v>
+      </c>
+      <c r="B709" t="n">
+        <v>3.45892626e-13</v>
+      </c>
+      <c r="C709" t="n">
+        <v>1.257493104e-14</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>3.17383</v>
+      </c>
+      <c r="B710" t="n">
+        <v>2.9628189e-13</v>
+      </c>
+      <c r="C710" t="n">
+        <v>6.5296719e-15</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>3.17405</v>
+      </c>
+      <c r="B711" t="n">
+        <v>4.07385396e-13</v>
+      </c>
+      <c r="C711" t="n">
+        <v>1.33139817e-14</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>3.17462</v>
+      </c>
+      <c r="B712" t="n">
+        <v>4.91152374e-13</v>
+      </c>
+      <c r="C712" t="n">
+        <v>1.435665942e-14</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>3.17484</v>
+      </c>
+      <c r="B713" t="n">
+        <v>3.41600868e-13</v>
+      </c>
+      <c r="C713" t="n">
+        <v>9.03529602e-15</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>3.17509</v>
+      </c>
+      <c r="B714" t="n">
+        <v>5.40980982e-13</v>
+      </c>
+      <c r="C714" t="n">
+        <v>1.448051004e-14</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>3.17593</v>
+      </c>
+      <c r="B715" t="n">
+        <v>5.642452260000001e-13</v>
+      </c>
+      <c r="C715" t="n">
+        <v>1.431358164e-14</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>3.17709</v>
+      </c>
+      <c r="B716" t="n">
+        <v>6.40973016e-13</v>
+      </c>
+      <c r="C716" t="n">
+        <v>1.581885288e-14</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>3.17728</v>
+      </c>
+      <c r="B717" t="n">
+        <v>4.2635628e-13</v>
+      </c>
+      <c r="C717" t="n">
+        <v>8.725068720000001e-15</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>3.17763</v>
+      </c>
+      <c r="B718" t="n">
+        <v>6.347860920000001e-13</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1.575674334e-14</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>3.17783</v>
+      </c>
+      <c r="B719" t="n">
+        <v>6.129604440000001e-13</v>
+      </c>
+      <c r="C719" t="n">
+        <v>1.5822954e-14</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>3.17815</v>
+      </c>
+      <c r="B720" t="n">
+        <v>4.04726076e-13</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1.18303695e-14</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>3.17849</v>
+      </c>
+      <c r="B721" t="n">
+        <v>6.17710374e-13</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1.523804778e-14</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>3.17886</v>
+      </c>
+      <c r="B722" t="n">
+        <v>5.610204e-13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1.48501395e-14</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>3.17983</v>
+      </c>
+      <c r="B723" t="n">
+        <v>5.0307606e-13</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1.22161311e-14</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>3.18111</v>
+      </c>
+      <c r="B724" t="n">
+        <v>4.14443808e-13</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1.303664346e-14</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>3.18198</v>
+      </c>
+      <c r="B725" t="n">
+        <v>3.90131856e-13</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1.227873726e-14</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>3.18299</v>
+      </c>
+      <c r="B726" t="n">
+        <v>3.1250214e-13</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1.179887418e-14</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1.56816576e-13</v>
+      </c>
+      <c r="C727" t="n">
+        <v>4.5902907e-15</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B728" t="n">
+        <v>2.26908882e-13</v>
+      </c>
+      <c r="C728" t="n">
+        <v>7.592086260000001e-15</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>3.18398</v>
+      </c>
+      <c r="B729" t="n">
+        <v>2.73299598e-13</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1.215248364e-14</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>3.18499</v>
+      </c>
+      <c r="B730" t="n">
+        <v>2.41546356e-13</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1.00868328e-14</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="B731" t="n">
+        <v>2.06211042e-13</v>
+      </c>
+      <c r="C731" t="n">
+        <v>9.781459560000001e-15</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>3.18704</v>
+      </c>
+      <c r="B732" t="n">
+        <v>1.6446933e-13</v>
+      </c>
+      <c r="C732" t="n">
+        <v>8.52718968e-15</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>3.18805</v>
+      </c>
+      <c r="B733" t="n">
+        <v>1.7167833e-13</v>
+      </c>
+      <c r="C733" t="n">
+        <v>9.6042303e-15</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>3.18892</v>
+      </c>
+      <c r="B734" t="n">
+        <v>1.44096696e-13</v>
+      </c>
+      <c r="C734" t="n">
+        <v>9.085887180000001e-15</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>3.18983</v>
+      </c>
+      <c r="B735" t="n">
+        <v>1.01435436e-13</v>
+      </c>
+      <c r="C735" t="n">
+        <v>2.44167228e-15</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>3.18993</v>
+      </c>
+      <c r="B736" t="n">
+        <v>1.342709892e-13</v>
+      </c>
+      <c r="C736" t="n">
+        <v>9.153715860000001e-15</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="B737" t="n">
+        <v>1.16216289e-13</v>
+      </c>
+      <c r="C737" t="n">
+        <v>7.4443338e-15</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>3.19196</v>
+      </c>
+      <c r="B738" t="n">
+        <v>9.01799442e-14</v>
+      </c>
+      <c r="C738" t="n">
+        <v>3.18360654e-15</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>3.19199</v>
+      </c>
+      <c r="B739" t="n">
+        <v>1.05470874e-13</v>
+      </c>
+      <c r="C739" t="n">
+        <v>7.45391376e-15</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>3.19298</v>
+      </c>
+      <c r="B740" t="n">
+        <v>1.22130072e-13</v>
+      </c>
+      <c r="C740" t="n">
+        <v>7.765534800000001e-15</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>3.19384</v>
+      </c>
+      <c r="B741" t="n">
+        <v>1.058090562e-13</v>
+      </c>
+      <c r="C741" t="n">
+        <v>6.990278940000001e-15</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>3.19392</v>
+      </c>
+      <c r="B742" t="n">
+        <v>7.16576202e-14</v>
+      </c>
+      <c r="C742" t="n">
+        <v>5.36416884e-15</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>3.19501</v>
+      </c>
+      <c r="B743" t="n">
+        <v>9.5141178e-14</v>
+      </c>
+      <c r="C743" t="n">
+        <v>6.61082922e-15</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="B744" t="n">
+        <v>1.042679322e-13</v>
+      </c>
+      <c r="C744" t="n">
+        <v>8.959665600000001e-15</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B745" t="n">
+        <v>8.8979085e-14</v>
+      </c>
+      <c r="C745" t="n">
+        <v>7.88786352e-15</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
         <v>3.1976</v>
       </c>
-      <c r="B610" t="n">
+      <c r="B746" t="n">
         <v>7.10520642e-14</v>
       </c>
-      <c r="C610" t="n">
+      <c r="C746" t="n">
         <v>4.002100380000001e-15</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>3.19795</v>
+      </c>
+      <c r="B747" t="n">
+        <v>8.486723159999999e-14</v>
+      </c>
+      <c r="C747" t="n">
+        <v>6.76349982e-15</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>3.19892</v>
+      </c>
+      <c r="B748" t="n">
+        <v>8.57217384e-14</v>
+      </c>
+      <c r="C748" t="n">
+        <v>7.413158880000001e-15</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="B749" t="n">
+        <v>7.725981420000001e-14</v>
+      </c>
+      <c r="C749" t="n">
+        <v>5.66757162e-15</v>
       </c>
     </row>
   </sheetData>
